--- a/paralg/u1/a1/a1.xlsx
+++ b/paralg/u1/a1/a1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITZeug\Parallele-Systeme\paralg\u1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITZeug\Parallele-Systeme\paralg\u1\a1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -122,8 +122,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1073,11 +1074,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="420164408"/>
-        <c:axId val="420159704"/>
+        <c:axId val="398919968"/>
+        <c:axId val="398915656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="420164408"/>
+        <c:axId val="398919968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1190,12 +1191,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420159704"/>
+        <c:crossAx val="398915656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="420159704"/>
+        <c:axId val="398915656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1308,7 +1309,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420164408"/>
+        <c:crossAx val="398919968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1894,11 +1895,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="409246376"/>
-        <c:axId val="420161664"/>
+        <c:axId val="398922320"/>
+        <c:axId val="398918792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="409246376"/>
+        <c:axId val="398922320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2011,12 +2012,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420161664"/>
+        <c:crossAx val="398918792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="420161664"/>
+        <c:axId val="398918792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2129,7 +2130,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409246376"/>
+        <c:crossAx val="398922320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3635,11 +3636,12 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -3654,8 +3656,8 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1">
-        <v>0</v>
+      <c r="D1" s="1">
+        <v>1.012987E-8</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -3735,7 +3737,7 @@
         <v>64</v>
       </c>
       <c r="K3">
-        <f>alpha+beta*A3</f>
+        <f t="shared" ref="K3:K34" si="0">alpha+beta*A3</f>
         <v>9.3258173076922891E-5</v>
       </c>
       <c r="L3">
@@ -3751,11 +3753,11 @@
         <v>1.12E-4</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C66" si="0">A4*B4</f>
+        <f t="shared" ref="C4:C66" si="1">A4*B4</f>
         <v>2.8672E-2</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D66" si="1">A4*A4</f>
+        <f t="shared" ref="D4:D66" si="2">A4*A4</f>
         <v>65536</v>
       </c>
       <c r="F4" t="s">
@@ -3773,11 +3775,11 @@
         <v>9.6406035370879276E-9</v>
       </c>
       <c r="K4">
-        <f>alpha+beta*A4</f>
+        <f t="shared" si="0"/>
         <v>9.5726167582417396E-5</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L66" si="2">B4-K4</f>
+        <f t="shared" ref="L4:L66" si="3">B4-K4</f>
         <v>1.6273832417582602E-5</v>
       </c>
     </row>
@@ -3789,19 +3791,19 @@
         <v>1.16E-4</v>
       </c>
       <c r="C5">
+        <f t="shared" si="1"/>
+        <v>5.9392E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="0"/>
-        <v>5.9392E-2</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>262144</v>
-      </c>
-      <c r="K5">
-        <f>alpha+beta*A5</f>
         <v>9.8194162087911915E-5</v>
       </c>
       <c r="L5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7805837912088086E-5</v>
       </c>
     </row>
@@ -3813,19 +3815,19 @@
         <v>1.16E-4</v>
       </c>
       <c r="C6">
+        <f t="shared" si="1"/>
+        <v>8.9088000000000001E-2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>589824</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="0"/>
-        <v>8.9088000000000001E-2</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>589824</v>
-      </c>
-      <c r="K6">
-        <f>alpha+beta*A6</f>
         <v>1.0066215659340642E-4</v>
       </c>
       <c r="L6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.533784340659358E-5</v>
       </c>
     </row>
@@ -3837,19 +3839,19 @@
         <v>8.8999999999999995E-5</v>
       </c>
       <c r="C7">
+        <f t="shared" si="1"/>
+        <v>9.1135999999999995E-2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>1048576</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="0"/>
-        <v>9.1135999999999995E-2</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>1048576</v>
-      </c>
-      <c r="K7">
-        <f>alpha+beta*A7</f>
         <v>1.0313015109890093E-4</v>
       </c>
       <c r="L7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.4130151098900931E-5</v>
       </c>
     </row>
@@ -3861,19 +3863,19 @@
         <v>9.2999999999999997E-5</v>
       </c>
       <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.11903999999999999</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>1638400</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="0"/>
-        <v>0.11903999999999999</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>1638400</v>
-      </c>
-      <c r="K8">
-        <f>alpha+beta*A8</f>
         <v>1.0559814560439544E-4</v>
       </c>
       <c r="L8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.2598145604395447E-5</v>
       </c>
     </row>
@@ -3885,19 +3887,19 @@
         <v>1.15E-4</v>
       </c>
       <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0.17664000000000002</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>2359296</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="0"/>
-        <v>0.17664000000000002</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>2359296</v>
-      </c>
-      <c r="K9">
-        <f>alpha+beta*A9</f>
         <v>1.0806614010988995E-4</v>
       </c>
       <c r="L9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9338598901100539E-6</v>
       </c>
     </row>
@@ -3909,19 +3911,19 @@
         <v>1.12E-4</v>
       </c>
       <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0.20070399999999999</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>3211264</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="0"/>
-        <v>0.20070399999999999</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>3211264</v>
-      </c>
-      <c r="K10">
-        <f>alpha+beta*A10</f>
         <v>1.1053413461538445E-4</v>
       </c>
       <c r="L10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4658653846155435E-6</v>
       </c>
     </row>
@@ -3933,19 +3935,19 @@
         <v>1.18E-4</v>
       </c>
       <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0.24166399999999999</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>4194304</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="0"/>
-        <v>0.24166399999999999</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>4194304</v>
-      </c>
-      <c r="K11">
-        <f>alpha+beta*A11</f>
         <v>1.1300212912087896E-4</v>
       </c>
       <c r="L11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.997870879121035E-6</v>
       </c>
     </row>
@@ -3957,19 +3959,19 @@
         <v>1.17E-4</v>
       </c>
       <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0.26956799999999997</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>5308416</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="0"/>
-        <v>0.26956799999999997</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>5308416</v>
-      </c>
-      <c r="K12">
-        <f>alpha+beta*A12</f>
         <v>1.1547012362637348E-4</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.529876373626519E-6</v>
       </c>
     </row>
@@ -3981,19 +3983,19 @@
         <v>1.18E-4</v>
       </c>
       <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0.30208000000000002</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>6553600</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="0"/>
-        <v>0.30208000000000002</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>6553600</v>
-      </c>
-      <c r="K13">
-        <f>alpha+beta*A13</f>
         <v>1.1793811813186798E-4</v>
       </c>
       <c r="L13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.1881868132011007E-8</v>
       </c>
     </row>
@@ -4005,19 +4007,19 @@
         <v>1.17E-4</v>
       </c>
       <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0.32947199999999999</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>7929856</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="0"/>
-        <v>0.32947199999999999</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>7929856</v>
-      </c>
-      <c r="K14">
-        <f>alpha+beta*A14</f>
         <v>1.204061126373625E-4</v>
       </c>
       <c r="L14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.406112637362505E-6</v>
       </c>
     </row>
@@ -4029,19 +4031,19 @@
         <v>1.16E-4</v>
       </c>
       <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.356352</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>9437184</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="0"/>
-        <v>0.356352</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>9437184</v>
-      </c>
-      <c r="K15">
-        <f>alpha+beta*A15</f>
         <v>1.2287410714285701E-4</v>
       </c>
       <c r="L15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6.8741071428570074E-6</v>
       </c>
     </row>
@@ -4053,19 +4055,19 @@
         <v>1.17E-4</v>
       </c>
       <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0.389376</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>11075584</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="0"/>
-        <v>0.389376</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>11075584</v>
-      </c>
-      <c r="K16">
-        <f>alpha+beta*A16</f>
         <v>1.2534210164835151E-4</v>
       </c>
       <c r="L16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8.3421016483515155E-6</v>
       </c>
     </row>
@@ -4077,19 +4079,19 @@
         <v>1.17E-4</v>
       </c>
       <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0.41932799999999998</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>12845056</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="0"/>
-        <v>0.41932799999999998</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>12845056</v>
-      </c>
-      <c r="K17">
-        <f>alpha+beta*A17</f>
         <v>1.2781009615384602E-4</v>
       </c>
       <c r="L17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.0810096153846021E-5</v>
       </c>
     </row>
@@ -4101,19 +4103,19 @@
         <v>1.17E-4</v>
       </c>
       <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0.44928000000000001</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>14745600</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="0"/>
-        <v>0.44928000000000001</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>14745600</v>
-      </c>
-      <c r="K18">
-        <f>alpha+beta*A18</f>
         <v>1.3027809065934052E-4</v>
       </c>
       <c r="L18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.3278090659340526E-5</v>
       </c>
     </row>
@@ -4125,19 +4127,19 @@
         <v>1.15E-4</v>
       </c>
       <c r="C19">
+        <f t="shared" si="1"/>
+        <v>0.47104000000000001</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>16777216</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="0"/>
-        <v>0.47104000000000001</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>16777216</v>
-      </c>
-      <c r="K19">
-        <f>alpha+beta*A19</f>
         <v>1.3274608516483503E-4</v>
       </c>
       <c r="L19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.7746085164835026E-5</v>
       </c>
     </row>
@@ -4149,19 +4151,19 @@
         <v>1.16E-4</v>
       </c>
       <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0.50483199999999995</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>18939904</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="0"/>
-        <v>0.50483199999999995</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>18939904</v>
-      </c>
-      <c r="K20">
-        <f>alpha+beta*A20</f>
         <v>1.3521407967032956E-4</v>
       </c>
       <c r="L20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.9214079670329561E-5</v>
       </c>
     </row>
@@ -4173,19 +4175,19 @@
         <v>1.17E-4</v>
       </c>
       <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0.53913599999999995</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>21233664</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="0"/>
-        <v>0.53913599999999995</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>21233664</v>
-      </c>
-      <c r="K21">
-        <f>alpha+beta*A21</f>
         <v>1.3768207417582407E-4</v>
       </c>
       <c r="L21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.0682074175824069E-5</v>
       </c>
     </row>
@@ -4197,19 +4199,19 @@
         <v>1.17E-4</v>
       </c>
       <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0.56908800000000004</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>23658496</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="0"/>
-        <v>0.56908800000000004</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>23658496</v>
-      </c>
-      <c r="K22">
-        <f>alpha+beta*A22</f>
         <v>1.4015006868131857E-4</v>
       </c>
       <c r="L22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.3150068681318574E-5</v>
       </c>
     </row>
@@ -4221,19 +4223,19 @@
         <v>1.17E-4</v>
       </c>
       <c r="C23">
+        <f t="shared" si="1"/>
+        <v>0.59904000000000002</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>26214400</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="0"/>
-        <v>0.59904000000000002</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>26214400</v>
-      </c>
-      <c r="K23">
-        <f>alpha+beta*A23</f>
         <v>1.4261806318681308E-4</v>
       </c>
       <c r="L23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.5618063186813079E-5</v>
       </c>
     </row>
@@ -4245,19 +4247,19 @@
         <v>1.21E-4</v>
       </c>
       <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0.65049599999999996</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>28901376</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="0"/>
-        <v>0.65049599999999996</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>28901376</v>
-      </c>
-      <c r="K24">
-        <f>alpha+beta*A24</f>
         <v>1.4508605769230758E-4</v>
       </c>
       <c r="L24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.4086057692307582E-5</v>
       </c>
     </row>
@@ -4269,19 +4271,19 @@
         <v>1.8599999999999999E-4</v>
       </c>
       <c r="C25">
+        <f t="shared" si="1"/>
+        <v>1.047552</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>31719424</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="0"/>
-        <v>1.047552</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>31719424</v>
-      </c>
-      <c r="K25">
-        <f>alpha+beta*A25</f>
         <v>1.4755405219780211E-4</v>
       </c>
       <c r="L25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.844594780219788E-5</v>
       </c>
     </row>
@@ -4293,19 +4295,19 @@
         <v>1.8900000000000001E-4</v>
       </c>
       <c r="C26">
+        <f t="shared" si="1"/>
+        <v>1.112832</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>34668544</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="0"/>
-        <v>1.112832</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>34668544</v>
-      </c>
-      <c r="K26">
-        <f>alpha+beta*A26</f>
         <v>1.5002204670329659E-4</v>
       </c>
       <c r="L26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.897795329670342E-5</v>
       </c>
     </row>
@@ -4317,19 +4319,19 @@
         <v>1.34E-4</v>
       </c>
       <c r="C27">
+        <f t="shared" si="1"/>
+        <v>0.82329600000000003</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>37748736</v>
+      </c>
+      <c r="K27">
         <f t="shared" si="0"/>
-        <v>0.82329600000000003</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="1"/>
-        <v>37748736</v>
-      </c>
-      <c r="K27">
-        <f>alpha+beta*A27</f>
         <v>1.5249004120879113E-4</v>
       </c>
       <c r="L27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.8490041208791121E-5</v>
       </c>
     </row>
@@ -4341,19 +4343,19 @@
         <v>1.45E-4</v>
       </c>
       <c r="C28">
+        <f t="shared" si="1"/>
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>40960000</v>
+      </c>
+      <c r="K28">
         <f t="shared" si="0"/>
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="1"/>
-        <v>40960000</v>
-      </c>
-      <c r="K28">
-        <f>alpha+beta*A28</f>
         <v>1.5495803571428563E-4</v>
       </c>
       <c r="L28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-9.9580357142856296E-6</v>
       </c>
     </row>
@@ -4365,19 +4367,19 @@
         <v>1.8900000000000001E-4</v>
       </c>
       <c r="C29">
+        <f t="shared" si="1"/>
+        <v>1.257984</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>44302336</v>
+      </c>
+      <c r="K29">
         <f t="shared" si="0"/>
-        <v>1.257984</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="1"/>
-        <v>44302336</v>
-      </c>
-      <c r="K29">
-        <f>alpha+beta*A29</f>
         <v>1.5742603021978014E-4</v>
       </c>
       <c r="L29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.1573969780219878E-5</v>
       </c>
     </row>
@@ -4389,19 +4391,19 @@
         <v>1.44E-4</v>
       </c>
       <c r="C30">
+        <f t="shared" si="1"/>
+        <v>0.99532799999999999</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>47775744</v>
+      </c>
+      <c r="K30">
         <f t="shared" si="0"/>
-        <v>0.99532799999999999</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="1"/>
-        <v>47775744</v>
-      </c>
-      <c r="K30">
-        <f>alpha+beta*A30</f>
         <v>1.5989402472527464E-4</v>
       </c>
       <c r="L30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.5894024725274637E-5</v>
       </c>
     </row>
@@ -4413,19 +4415,19 @@
         <v>1.8799999999999999E-4</v>
       </c>
       <c r="C31">
+        <f t="shared" si="1"/>
+        <v>1.3475839999999999</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>51380224</v>
+      </c>
+      <c r="K31">
         <f t="shared" si="0"/>
-        <v>1.3475839999999999</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="1"/>
-        <v>51380224</v>
-      </c>
-      <c r="K31">
-        <f>alpha+beta*A31</f>
         <v>1.6236201923076915E-4</v>
       </c>
       <c r="L31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.5637980769230843E-5</v>
       </c>
     </row>
@@ -4437,19 +4439,19 @@
         <v>1.8799999999999999E-4</v>
       </c>
       <c r="C32">
+        <f t="shared" si="1"/>
+        <v>1.3957119999999998</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>55115776</v>
+      </c>
+      <c r="K32">
         <f t="shared" si="0"/>
-        <v>1.3957119999999998</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="1"/>
-        <v>55115776</v>
-      </c>
-      <c r="K32">
-        <f>alpha+beta*A32</f>
         <v>1.6483001373626368E-4</v>
       </c>
       <c r="L32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.316998626373631E-5</v>
       </c>
     </row>
@@ -4461,19 +4463,19 @@
         <v>1.8900000000000001E-4</v>
       </c>
       <c r="C33">
+        <f t="shared" si="1"/>
+        <v>1.4515200000000001</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>58982400</v>
+      </c>
+      <c r="K33">
         <f t="shared" si="0"/>
-        <v>1.4515200000000001</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="1"/>
-        <v>58982400</v>
-      </c>
-      <c r="K33">
-        <f>alpha+beta*A33</f>
         <v>1.6729800824175816E-4</v>
       </c>
       <c r="L33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.1701991758241857E-5</v>
       </c>
     </row>
@@ -4485,19 +4487,19 @@
         <v>1.8699999999999999E-4</v>
       </c>
       <c r="C34">
+        <f t="shared" si="1"/>
+        <v>1.484032</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>62980096</v>
+      </c>
+      <c r="K34">
         <f t="shared" si="0"/>
-        <v>1.484032</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="1"/>
-        <v>62980096</v>
-      </c>
-      <c r="K34">
-        <f>alpha+beta*A34</f>
         <v>1.6976600274725269E-4</v>
       </c>
       <c r="L34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7233997252747303E-5</v>
       </c>
     </row>
@@ -4509,19 +4511,19 @@
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5564800000000001</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67108864</v>
       </c>
       <c r="K35">
-        <f>alpha+beta*A35</f>
+        <f t="shared" ref="K35:K66" si="4">alpha+beta*A35</f>
         <v>1.7223399725274719E-4</v>
       </c>
       <c r="L35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7766002747252816E-5</v>
       </c>
     </row>
@@ -4533,19 +4535,19 @@
         <v>1.8599999999999999E-4</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5713280000000001</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71368704</v>
       </c>
       <c r="K36">
-        <f>alpha+beta*A36</f>
+        <f t="shared" si="4"/>
         <v>1.747019917582417E-4</v>
       </c>
       <c r="L36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1298008241758295E-5</v>
       </c>
     </row>
@@ -4557,19 +4559,19 @@
         <v>1.8699999999999999E-4</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.627648</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75759616</v>
       </c>
       <c r="K37">
-        <f>alpha+beta*A37</f>
+        <f t="shared" si="4"/>
         <v>1.7716998626373623E-4</v>
       </c>
       <c r="L37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.8300137362637599E-6</v>
       </c>
     </row>
@@ -4581,19 +4583,19 @@
         <v>1.8200000000000001E-4</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6307199999999999</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80281600</v>
       </c>
       <c r="K38">
-        <f>alpha+beta*A38</f>
+        <f t="shared" si="4"/>
         <v>1.7963798076923071E-4</v>
       </c>
       <c r="L38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.3620192307692957E-6</v>
       </c>
     </row>
@@ -4605,19 +4607,19 @@
         <v>1.8799999999999999E-4</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7326079999999999</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84934656</v>
       </c>
       <c r="K39">
-        <f>alpha+beta*A39</f>
+        <f t="shared" si="4"/>
         <v>1.8210597527472524E-4</v>
       </c>
       <c r="L39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.8940247252747466E-6</v>
       </c>
     </row>
@@ -4629,19 +4631,19 @@
         <v>1.8799999999999999E-4</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7807359999999999</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89718784</v>
       </c>
       <c r="K40">
-        <f>alpha+beta*A40</f>
+        <f t="shared" si="4"/>
         <v>1.8457396978021975E-4</v>
       </c>
       <c r="L40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.4260302197802414E-6</v>
       </c>
     </row>
@@ -4653,19 +4655,19 @@
         <v>1.8900000000000001E-4</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8385920000000002</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94633984</v>
       </c>
       <c r="K41">
-        <f>alpha+beta*A41</f>
+        <f t="shared" si="4"/>
         <v>1.8704196428571425E-4</v>
       </c>
       <c r="L41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9580357142857604E-6</v>
       </c>
     </row>
@@ -4677,19 +4679,19 @@
         <v>1.8799999999999999E-4</v>
       </c>
       <c r="C42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.876992</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99680256</v>
       </c>
       <c r="K42">
-        <f>alpha+beta*A42</f>
+        <f t="shared" si="4"/>
         <v>1.8950995879120876E-4</v>
       </c>
       <c r="L42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.5099587912087691E-6</v>
       </c>
     </row>
@@ -4701,19 +4703,19 @@
         <v>1.8900000000000001E-4</v>
       </c>
       <c r="C43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9353600000000002</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>104857600</v>
       </c>
       <c r="K43">
-        <f>alpha+beta*A43</f>
+        <f t="shared" si="4"/>
         <v>1.9197795329670326E-4</v>
       </c>
       <c r="L43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.9779532967032501E-6</v>
       </c>
     </row>
@@ -4725,19 +4727,19 @@
         <v>1.8799999999999999E-4</v>
       </c>
       <c r="C44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9732479999999999</v>
       </c>
       <c r="D44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110166016</v>
       </c>
       <c r="K44">
-        <f>alpha+beta*A44</f>
+        <f t="shared" si="4"/>
         <v>1.944459478021978E-4</v>
       </c>
       <c r="L44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6.4459478021978067E-6</v>
       </c>
     </row>
@@ -4749,19 +4751,19 @@
         <v>1.8799999999999999E-4</v>
       </c>
       <c r="C45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0213760000000001</v>
       </c>
       <c r="D45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>115605504</v>
       </c>
       <c r="K45">
-        <f>alpha+beta*A45</f>
+        <f t="shared" si="4"/>
         <v>1.9691394230769227E-4</v>
       </c>
       <c r="L45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8.9139423076922848E-6</v>
       </c>
     </row>
@@ -4773,19 +4775,19 @@
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="C46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.09152</v>
       </c>
       <c r="D46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>121176064</v>
       </c>
       <c r="K46">
-        <f>alpha+beta*A46</f>
+        <f t="shared" si="4"/>
         <v>1.9938193681318681E-4</v>
       </c>
       <c r="L46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-9.3819368131867957E-6</v>
       </c>
     </row>
@@ -4797,19 +4799,19 @@
         <v>1.8900000000000001E-4</v>
       </c>
       <c r="C47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1288960000000001</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>126877696</v>
       </c>
       <c r="K47">
-        <f>alpha+beta*A47</f>
+        <f t="shared" si="4"/>
         <v>2.0184993131868131E-4</v>
       </c>
       <c r="L47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.2849931318681298E-5</v>
       </c>
     </row>
@@ -4821,19 +4823,19 @@
         <v>1.8900000000000001E-4</v>
       </c>
       <c r="C48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1772800000000001</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>132710400</v>
       </c>
       <c r="K48">
-        <f>alpha+beta*A48</f>
+        <f t="shared" si="4"/>
         <v>2.0431792582417582E-4</v>
       </c>
       <c r="L48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.5317925824175803E-5</v>
       </c>
     </row>
@@ -4845,19 +4847,19 @@
         <v>1.8900000000000001E-4</v>
       </c>
       <c r="C49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2256640000000001</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>138674176</v>
       </c>
       <c r="K49">
-        <f>alpha+beta*A49</f>
+        <f t="shared" si="4"/>
         <v>2.0678592032967032E-4</v>
       </c>
       <c r="L49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.7785920329670309E-5</v>
       </c>
     </row>
@@ -4869,19 +4871,19 @@
         <v>1.8200000000000001E-4</v>
       </c>
       <c r="C50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1898240000000002</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>144769024</v>
       </c>
       <c r="K50">
-        <f>alpha+beta*A50</f>
+        <f t="shared" si="4"/>
         <v>2.0925391483516483E-4</v>
       </c>
       <c r="L50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.7253914835164821E-5</v>
       </c>
     </row>
@@ -4893,19 +4895,19 @@
         <v>1.8100000000000001E-4</v>
       </c>
       <c r="C51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2241280000000003</v>
       </c>
       <c r="D51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150994944</v>
       </c>
       <c r="K51">
-        <f>alpha+beta*A51</f>
+        <f t="shared" si="4"/>
         <v>2.1172190934065936E-4</v>
       </c>
       <c r="L51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.0721909340659351E-5</v>
       </c>
     </row>
@@ -4917,19 +4919,19 @@
         <v>1.6200000000000001E-4</v>
       </c>
       <c r="C52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0321280000000002</v>
       </c>
       <c r="D52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>157351936</v>
       </c>
       <c r="K52">
-        <f>alpha+beta*A52</f>
+        <f t="shared" si="4"/>
         <v>2.1418990384615384E-4</v>
       </c>
       <c r="L52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5.218990384615383E-5</v>
       </c>
     </row>
@@ -4941,19 +4943,19 @@
         <v>1.8900000000000001E-4</v>
       </c>
       <c r="C53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4192</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>163840000</v>
       </c>
       <c r="K53">
-        <f>alpha+beta*A53</f>
+        <f t="shared" si="4"/>
         <v>2.1665789835164837E-4</v>
       </c>
       <c r="L53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.7657898351648357E-5</v>
       </c>
     </row>
@@ -4965,19 +4967,19 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6112000000000002</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170459136</v>
       </c>
       <c r="K54">
-        <f>alpha+beta*A54</f>
+        <f t="shared" si="4"/>
         <v>2.1912589285714288E-4</v>
       </c>
       <c r="L54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.9125892857142866E-5</v>
       </c>
     </row>
@@ -4989,19 +4991,19 @@
         <v>2.03E-4</v>
       </c>
       <c r="C55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7023359999999998</v>
       </c>
       <c r="D55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>177209344</v>
       </c>
       <c r="K55">
-        <f>alpha+beta*A55</f>
+        <f t="shared" si="4"/>
         <v>2.2159388736263738E-4</v>
       </c>
       <c r="L55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.8593887362637379E-5</v>
       </c>
     </row>
@@ -5013,19 +5015,19 @@
         <v>2.5799999999999998E-4</v>
       </c>
       <c r="C56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5005439999999997</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>184090624</v>
       </c>
       <c r="K56">
-        <f>alpha+beta*A56</f>
+        <f t="shared" si="4"/>
         <v>2.2406188186813189E-4</v>
       </c>
       <c r="L56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.3938118131868097E-5</v>
       </c>
     </row>
@@ -5037,19 +5039,19 @@
         <v>2.5999999999999998E-4</v>
       </c>
       <c r="C57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5942399999999997</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>191102976</v>
       </c>
       <c r="K57">
-        <f>alpha+beta*A57</f>
+        <f t="shared" si="4"/>
         <v>2.2652987637362639E-4</v>
       </c>
       <c r="L57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.3470123626373586E-5</v>
       </c>
     </row>
@@ -5061,19 +5063,19 @@
         <v>2.1900000000000001E-4</v>
       </c>
       <c r="C58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.08352</v>
       </c>
       <c r="D58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>198246400</v>
       </c>
       <c r="K58">
-        <f>alpha+beta*A58</f>
+        <f t="shared" si="4"/>
         <v>2.2899787087912092E-4</v>
       </c>
       <c r="L58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-9.9978708791209126E-6</v>
       </c>
     </row>
@@ -5085,19 +5087,19 @@
         <v>2.3000000000000001E-4</v>
       </c>
       <c r="C59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2972800000000002</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>205520896</v>
       </c>
       <c r="K59">
-        <f>alpha+beta*A59</f>
+        <f t="shared" si="4"/>
         <v>2.3146586538461543E-4</v>
       </c>
       <c r="L59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.4658653846154215E-6</v>
       </c>
     </row>
@@ -5109,19 +5111,19 @@
         <v>2.61E-4</v>
       </c>
       <c r="C60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8085119999999999</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>212926464</v>
       </c>
       <c r="K60">
-        <f>alpha+beta*A60</f>
+        <f t="shared" si="4"/>
         <v>2.3393385989010993E-4</v>
       </c>
       <c r="L60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7066140109890068E-5</v>
       </c>
     </row>
@@ -5133,19 +5135,19 @@
         <v>2.5999999999999998E-4</v>
       </c>
       <c r="C61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8604799999999995</v>
       </c>
       <c r="D61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>220463104</v>
       </c>
       <c r="K61">
-        <f>alpha+beta*A61</f>
+        <f t="shared" si="4"/>
         <v>2.3640185439560444E-4</v>
       </c>
       <c r="L61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.3598145604395538E-5</v>
       </c>
     </row>
@@ -5157,19 +5159,19 @@
         <v>2.5599999999999999E-4</v>
       </c>
       <c r="C62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8666239999999998</v>
       </c>
       <c r="D62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>228130816</v>
       </c>
       <c r="K62">
-        <f>alpha+beta*A62</f>
+        <f t="shared" si="4"/>
         <v>2.3886984890109894E-4</v>
       </c>
       <c r="L62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7130151098901044E-5</v>
       </c>
     </row>
@@ -5181,19 +5183,19 @@
         <v>2.5700000000000001E-4</v>
       </c>
       <c r="C63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.9475200000000004</v>
       </c>
       <c r="D63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>235929600</v>
       </c>
       <c r="K63">
-        <f>alpha+beta*A63</f>
+        <f t="shared" si="4"/>
         <v>2.4133784340659345E-4</v>
       </c>
       <c r="L63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5662156593406563E-5</v>
       </c>
     </row>
@@ -5205,19 +5207,19 @@
         <v>2.5399999999999999E-4</v>
       </c>
       <c r="C64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.9664639999999998</v>
       </c>
       <c r="D64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>243859456</v>
       </c>
       <c r="K64">
-        <f>alpha+beta*A64</f>
+        <f t="shared" si="4"/>
         <v>2.4380583791208798E-4</v>
       </c>
       <c r="L64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0194162087912012E-5</v>
       </c>
     </row>
@@ -5229,19 +5231,19 @@
         <v>2.5500000000000002E-4</v>
       </c>
       <c r="C65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0473600000000003</v>
       </c>
       <c r="D65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>251920384</v>
       </c>
       <c r="K65">
-        <f>alpha+beta*A65</f>
+        <f t="shared" si="4"/>
         <v>2.4627383241758249E-4</v>
       </c>
       <c r="L65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.7261675824175313E-6</v>
       </c>
     </row>
@@ -5253,19 +5255,19 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="C66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.032</v>
       </c>
       <c r="D66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>260112384</v>
       </c>
       <c r="K66">
-        <f>alpha+beta*A66</f>
+        <f t="shared" si="4"/>
         <v>2.4874182692307702E-4</v>
       </c>
       <c r="L66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2581730769229858E-6</v>
       </c>
     </row>
@@ -5279,11 +5281,12 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" activeCellId="1" sqref="L3:L66 L2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.625" customWidth="1"/>
   </cols>
@@ -5298,8 +5301,8 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1">
-        <v>0</v>
+      <c r="D1" s="1">
+        <v>8.5023170000000008E-9</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -5379,7 +5382,7 @@
         <v>64</v>
       </c>
       <c r="K3">
-        <f>alpha+beta*A3</f>
+        <f t="shared" ref="K3:K34" si="0">alpha+beta*A3</f>
         <v>3.7797692307691317E-4</v>
       </c>
       <c r="L3">
@@ -5395,11 +5398,11 @@
         <v>2.6930000000000001E-3</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C66" si="0">A4*B4</f>
+        <f t="shared" ref="C4:C66" si="1">A4*B4</f>
         <v>749.38649600000008</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D66" si="1">A4*A4</f>
+        <f t="shared" ref="D4:D66" si="2">A4*A4</f>
         <v>77435305984</v>
       </c>
       <c r="F4" t="s">
@@ -5417,11 +5420,11 @@
         <v>8.5026265107540363E-9</v>
       </c>
       <c r="K4">
-        <f>alpha+beta*A4</f>
+        <f t="shared" si="0"/>
         <v>2.6047127747252661E-3</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L66" si="2">B4-K4</f>
+        <f t="shared" ref="L4:L66" si="3">B4-K4</f>
         <v>8.8287225274734024E-5</v>
       </c>
     </row>
@@ -5433,19 +5436,19 @@
         <v>4.8459999999999996E-3</v>
       </c>
       <c r="C5">
+        <f t="shared" si="1"/>
+        <v>2617.6153599999998</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>291772825600</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="0"/>
-        <v>2617.6153599999998</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>291772825600</v>
-      </c>
-      <c r="K5">
-        <f>alpha+beta*A5</f>
         <v>4.8314486263736191E-3</v>
       </c>
       <c r="L5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4551373626380502E-5</v>
       </c>
     </row>
@@ -5457,19 +5460,19 @@
         <v>7.0679999999999996E-3</v>
       </c>
       <c r="C6">
+        <f t="shared" si="1"/>
+        <v>5668.8752639999993</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>643280994304</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="0"/>
-        <v>5668.8752639999993</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>643280994304</v>
-      </c>
-      <c r="K6">
-        <f>alpha+beta*A6</f>
         <v>7.0581844780219722E-3</v>
       </c>
       <c r="L6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.8155219780274652E-6</v>
       </c>
     </row>
@@ -5481,19 +5484,19 @@
         <v>9.2189999999999998E-3</v>
       </c>
       <c r="C7">
+        <f t="shared" si="1"/>
+        <v>9808.4259839999995</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>1131959812096</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="0"/>
-        <v>9808.4259839999995</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>1131959812096</v>
-      </c>
-      <c r="K7">
-        <f>alpha+beta*A7</f>
         <v>9.2849203296703261E-3</v>
       </c>
       <c r="L7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6.5920329670326322E-5</v>
       </c>
     </row>
@@ -5505,19 +5508,19 @@
         <v>1.1514999999999999E-2</v>
       </c>
       <c r="C8">
+        <f t="shared" si="1"/>
+        <v>15266.863359999999</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>1757809278976</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="0"/>
-        <v>15266.863359999999</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>1757809278976</v>
-      </c>
-      <c r="K8">
-        <f>alpha+beta*A8</f>
         <v>1.1511656181318679E-2</v>
       </c>
       <c r="L8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.3438186813200543E-6</v>
       </c>
     </row>
@@ -5529,19 +5532,19 @@
         <v>1.3687E-2</v>
       </c>
       <c r="C9">
+        <f t="shared" si="1"/>
+        <v>21731.014144000001</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>2520829394944</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="0"/>
-        <v>21731.014144000001</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>2520829394944</v>
-      </c>
-      <c r="K9">
-        <f>alpha+beta*A9</f>
         <v>1.3738392032967032E-2</v>
       </c>
       <c r="L9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5.139203296703268E-5</v>
       </c>
     </row>
@@ -5553,19 +5556,19 @@
         <v>1.5956999999999999E-2</v>
       </c>
       <c r="C10">
+        <f t="shared" si="1"/>
+        <v>29514.067199999998</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>3421020160000</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="0"/>
-        <v>29514.067199999998</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>3421020160000</v>
-      </c>
-      <c r="K10">
-        <f>alpha+beta*A10</f>
         <v>1.5965127884615387E-2</v>
       </c>
       <c r="L10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8.1278846153880202E-6</v>
       </c>
     </row>
@@ -5577,19 +5580,19 @@
         <v>1.8123E-2</v>
       </c>
       <c r="C11">
+        <f t="shared" si="1"/>
+        <v>38266.497024000004</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>4458381574144</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="0"/>
-        <v>38266.497024000004</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>4458381574144</v>
-      </c>
-      <c r="K11">
-        <f>alpha+beta*A11</f>
         <v>1.819186373626374E-2</v>
       </c>
       <c r="L11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6.8863736263739816E-5</v>
       </c>
     </row>
@@ -5601,19 +5604,19 @@
         <v>2.0397999999999999E-2</v>
       </c>
       <c r="C12">
+        <f t="shared" si="1"/>
+        <v>48412.123648000001</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>5632913637376</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="0"/>
-        <v>48412.123648000001</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>5632913637376</v>
-      </c>
-      <c r="K12">
-        <f>alpha+beta*A12</f>
         <v>2.0418599587912093E-2</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.0599587912093625E-5</v>
       </c>
     </row>
@@ -5625,19 +5628,19 @@
         <v>2.2647E-2</v>
       </c>
       <c r="C13">
+        <f t="shared" si="1"/>
+        <v>59680.823808000001</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>6944616349696</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="0"/>
-        <v>59680.823808000001</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>6944616349696</v>
-      </c>
-      <c r="K13">
-        <f>alpha+beta*A13</f>
         <v>2.2645335439560446E-2</v>
       </c>
       <c r="L13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.664560439554319E-6</v>
       </c>
     </row>
@@ -5649,19 +5652,19 @@
         <v>2.4847000000000001E-2</v>
       </c>
       <c r="C14">
+        <f t="shared" si="1"/>
+        <v>71985.535744000008</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>8393489711104</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="0"/>
-        <v>71985.535744000008</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>8393489711104</v>
-      </c>
-      <c r="K14">
-        <f>alpha+beta*A14</f>
         <v>2.4872071291208799E-2</v>
       </c>
       <c r="L14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.5071291208798169E-5</v>
       </c>
     </row>
@@ -5673,19 +5676,19 @@
         <v>2.7137000000000001E-2</v>
       </c>
       <c r="C15">
+        <f t="shared" si="1"/>
+        <v>85726.868480000005</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>9979533721600</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="0"/>
-        <v>85726.868480000005</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>9979533721600</v>
-      </c>
-      <c r="K15">
-        <f>alpha+beta*A15</f>
         <v>2.7098807142857152E-2</v>
       </c>
       <c r="L15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.8192857142849146E-5</v>
       </c>
     </row>
@@ -5697,19 +5700,19 @@
         <v>2.9293E-2</v>
       </c>
       <c r="C16">
+        <f t="shared" si="1"/>
+        <v>100209.243904</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>11702748381184</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="0"/>
-        <v>100209.243904</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>11702748381184</v>
-      </c>
-      <c r="K16">
-        <f>alpha+beta*A16</f>
         <v>2.9325542994505505E-2</v>
       </c>
       <c r="L16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.2542994505505712E-5</v>
       </c>
     </row>
@@ -5721,19 +5724,19 @@
         <v>3.1583E-2</v>
       </c>
       <c r="C17">
+        <f t="shared" si="1"/>
+        <v>116314.37772800001</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>13563133689856</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="0"/>
-        <v>116314.37772800001</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>13563133689856</v>
-      </c>
-      <c r="K17">
-        <f>alpha+beta*A17</f>
         <v>3.1552278846153858E-2</v>
       </c>
       <c r="L17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0721153846141602E-5</v>
       </c>
     </row>
@@ -5745,19 +5748,19 @@
         <v>3.3738999999999998E-2</v>
       </c>
       <c r="C18">
+        <f t="shared" si="1"/>
+        <v>133090.36825599999</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>15560689647616</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="0"/>
-        <v>133090.36825599999</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>15560689647616</v>
-      </c>
-      <c r="K18">
-        <f>alpha+beta*A18</f>
         <v>3.3779014697802208E-2</v>
       </c>
       <c r="L18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.0014697802209787E-5</v>
       </c>
     </row>
@@ -5769,19 +5772,19 @@
         <v>3.603E-2</v>
       </c>
       <c r="C19">
+        <f t="shared" si="1"/>
+        <v>151563.50975999999</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>17695416254464</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="0"/>
-        <v>151563.50975999999</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>17695416254464</v>
-      </c>
-      <c r="K19">
-        <f>alpha+beta*A19</f>
         <v>3.6005750549450564E-2</v>
       </c>
       <c r="L19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4249450549435059E-5</v>
       </c>
     </row>
@@ -5793,19 +5796,19 @@
         <v>3.8254999999999997E-2</v>
       </c>
       <c r="C20">
+        <f t="shared" si="1"/>
+        <v>170941.70239999998</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>19967313510400</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="0"/>
-        <v>170941.70239999998</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>19967313510400</v>
-      </c>
-      <c r="K20">
-        <f>alpha+beta*A20</f>
         <v>3.8232486401098914E-2</v>
       </c>
       <c r="L20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2513598901083287E-5</v>
       </c>
     </row>
@@ -5817,19 +5820,19 @@
         <v>4.0478E-2</v>
       </c>
       <c r="C21">
+        <f t="shared" si="1"/>
+        <v>191475.83590400001</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>22376381415424</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="0"/>
-        <v>191475.83590400001</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>22376381415424</v>
-      </c>
-      <c r="K21">
-        <f>alpha+beta*A21</f>
         <v>4.0459222252747271E-2</v>
       </c>
       <c r="L21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8777747252729515E-5</v>
       </c>
     </row>
@@ -5841,19 +5844,19 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="C22">
+        <f t="shared" si="1"/>
+        <v>213169.33120000002</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>24922619969536</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="0"/>
-        <v>213169.33120000002</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>24922619969536</v>
-      </c>
-      <c r="K22">
-        <f>alpha+beta*A22</f>
         <v>4.268595810439562E-2</v>
       </c>
       <c r="L22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4041895604381682E-5</v>
       </c>
     </row>
@@ -5865,19 +5868,19 @@
         <v>4.4919000000000001E-2</v>
       </c>
       <c r="C23">
+        <f t="shared" si="1"/>
+        <v>236010.894336</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>27606029172736</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="0"/>
-        <v>236010.894336</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>27606029172736</v>
-      </c>
-      <c r="K23">
-        <f>alpha+beta*A23</f>
         <v>4.4912693956043977E-2</v>
       </c>
       <c r="L23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.3060439560239101E-6</v>
       </c>
     </row>
@@ -5889,19 +5892,19 @@
         <v>4.7182000000000002E-2</v>
       </c>
       <c r="C24">
+        <f t="shared" si="1"/>
+        <v>260257.42182400002</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>30426609025024</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="0"/>
-        <v>260257.42182400002</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>30426609025024</v>
-      </c>
-      <c r="K24">
-        <f>alpha+beta*A24</f>
         <v>4.7139429807692326E-2</v>
       </c>
       <c r="L24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.2570192307675447E-5</v>
       </c>
     </row>
@@ -5913,19 +5916,19 @@
         <v>4.9363999999999998E-2</v>
       </c>
       <c r="C25">
+        <f t="shared" si="1"/>
+        <v>285221.24287999998</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>33384359526400</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="0"/>
-        <v>285221.24287999998</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>33384359526400</v>
-      </c>
-      <c r="K25">
-        <f>alpha+beta*A25</f>
         <v>4.9366165659340683E-2</v>
       </c>
       <c r="L25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.1656593406846336E-6</v>
       </c>
     </row>
@@ -5937,19 +5940,19 @@
         <v>5.1594000000000001E-2</v>
       </c>
       <c r="C26">
+        <f t="shared" si="1"/>
+        <v>311617.85395200003</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>36479280676864</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="0"/>
-        <v>311617.85395200003</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>36479280676864</v>
-      </c>
-      <c r="K26">
-        <f>alpha+beta*A26</f>
         <v>5.1592901510989032E-2</v>
       </c>
       <c r="L26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0984890109685952E-6</v>
       </c>
     </row>
@@ -5961,19 +5964,19 @@
         <v>5.3807000000000001E-2</v>
       </c>
       <c r="C27">
+        <f t="shared" si="1"/>
+        <v>339075.35667200002</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>39711372476416</v>
+      </c>
+      <c r="K27">
         <f t="shared" si="0"/>
-        <v>339075.35667200002</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="1"/>
-        <v>39711372476416</v>
-      </c>
-      <c r="K27">
-        <f>alpha+beta*A27</f>
         <v>5.3819637362637389E-2</v>
       </c>
       <c r="L27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.2637362637388239E-5</v>
       </c>
     </row>
@@ -5985,19 +5988,19 @@
         <v>5.6099999999999997E-2</v>
       </c>
       <c r="C28">
+        <f t="shared" si="1"/>
+        <v>368217.0624</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>43080634925056</v>
+      </c>
+      <c r="K28">
         <f t="shared" si="0"/>
-        <v>368217.0624</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="1"/>
-        <v>43080634925056</v>
-      </c>
-      <c r="K28">
-        <f>alpha+beta*A28</f>
         <v>5.6046373214285738E-2</v>
       </c>
       <c r="L28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.3626785714258607E-5</v>
       </c>
     </row>
@@ -6009,19 +6012,19 @@
         <v>5.8251999999999998E-2</v>
       </c>
       <c r="C29">
+        <f t="shared" si="1"/>
+        <v>397597.394944</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>46587068022784</v>
+      </c>
+      <c r="K29">
         <f t="shared" si="0"/>
-        <v>397597.394944</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="1"/>
-        <v>46587068022784</v>
-      </c>
-      <c r="K29">
-        <f>alpha+beta*A29</f>
         <v>5.8273109065934095E-2</v>
       </c>
       <c r="L29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.1109065934096782E-5</v>
       </c>
     </row>
@@ -6033,19 +6036,19 @@
         <v>6.0540999999999998E-2</v>
       </c>
       <c r="C30">
+        <f t="shared" si="1"/>
+        <v>429075.86176</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>50230671769600</v>
+      </c>
+      <c r="K30">
         <f t="shared" si="0"/>
-        <v>429075.86176</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="1"/>
-        <v>50230671769600</v>
-      </c>
-      <c r="K30">
-        <f>alpha+beta*A30</f>
         <v>6.0499844917582445E-2</v>
       </c>
       <c r="L30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.1155082417553002E-5</v>
       </c>
     </row>
@@ -6057,19 +6060,19 @@
         <v>6.2767000000000003E-2</v>
       </c>
       <c r="C31">
+        <f t="shared" si="1"/>
+        <v>461290.24921600003</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>54011446165504</v>
+      </c>
+      <c r="K31">
         <f t="shared" si="0"/>
-        <v>461290.24921600003</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="1"/>
-        <v>54011446165504</v>
-      </c>
-      <c r="K31">
-        <f>alpha+beta*A31</f>
         <v>6.2726580769230794E-2</v>
       </c>
       <c r="L31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.0419230769209169E-5</v>
       </c>
     </row>
@@ -6081,19 +6084,19 @@
         <v>6.4990999999999993E-2</v>
       </c>
       <c r="C32">
+        <f t="shared" si="1"/>
+        <v>494655.33977599995</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>57929391210496</v>
+      </c>
+      <c r="K32">
         <f t="shared" si="0"/>
-        <v>494655.33977599995</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="1"/>
-        <v>57929391210496</v>
-      </c>
-      <c r="K32">
-        <f>alpha+beta*A32</f>
         <v>6.4953316620879151E-2</v>
       </c>
       <c r="L32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.768337912084252E-5</v>
       </c>
     </row>
@@ -6105,19 +6108,19 @@
         <v>6.7211000000000007E-2</v>
       </c>
       <c r="C33">
+        <f t="shared" si="1"/>
+        <v>529153.81606400001</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>61984506904576</v>
+      </c>
+      <c r="K33">
         <f t="shared" si="0"/>
-        <v>529153.81606400001</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="1"/>
-        <v>61984506904576</v>
-      </c>
-      <c r="K33">
-        <f>alpha+beta*A33</f>
         <v>6.7180052472527493E-2</v>
       </c>
       <c r="L33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0947527472513503E-5</v>
       </c>
     </row>
@@ -6129,19 +6132,19 @@
         <v>6.9406999999999996E-2</v>
       </c>
       <c r="C34">
+        <f t="shared" si="1"/>
+        <v>564619.83718399995</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>66176793247744</v>
+      </c>
+      <c r="K34">
         <f t="shared" si="0"/>
-        <v>564619.83718399995</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="1"/>
-        <v>66176793247744</v>
-      </c>
-      <c r="K34">
-        <f>alpha+beta*A34</f>
         <v>6.940678832417585E-2</v>
       </c>
       <c r="L34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.1167582414660657E-7</v>
       </c>
     </row>
@@ -6153,19 +6156,19 @@
         <v>7.1654999999999996E-2</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>601672.70400000003</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70506250240000</v>
       </c>
       <c r="K35">
-        <f>alpha+beta*A35</f>
+        <f t="shared" ref="K35:K66" si="4">alpha+beta*A35</f>
         <v>7.1633524175824206E-2</v>
       </c>
       <c r="L35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.1475824175790081E-5</v>
       </c>
     </row>
@@ -6177,19 +6180,19 @@
         <v>7.3857000000000006E-2</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>639504.71961600007</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74972877881344</v>
       </c>
       <c r="K36">
-        <f>alpha+beta*A36</f>
+        <f t="shared" si="4"/>
         <v>7.3860260027472563E-2</v>
       </c>
       <c r="L36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.2600274725569367E-6</v>
       </c>
     </row>
@@ -6201,19 +6204,19 @@
         <v>7.6103000000000004E-2</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>678882.59532800002</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79576676171776</v>
       </c>
       <c r="K37">
-        <f>alpha+beta*A37</f>
+        <f t="shared" si="4"/>
         <v>7.6086995879120906E-2</v>
       </c>
       <c r="L37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6004120879098416E-5</v>
       </c>
     </row>
@@ -6225,19 +6228,19 @@
         <v>7.8320000000000001E-2</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>719170.58048</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84317645111296</v>
       </c>
       <c r="K38">
-        <f>alpha+beta*A38</f>
+        <f t="shared" si="4"/>
         <v>7.8313731730769262E-2</v>
       </c>
       <c r="L38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.2682692307386434E-6</v>
       </c>
     </row>
@@ -6249,19 +6252,19 @@
         <v>8.0557000000000004E-2</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>760808.66406400001</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89195784699904</v>
       </c>
       <c r="K39">
-        <f>alpha+beta*A39</f>
+        <f t="shared" si="4"/>
         <v>8.0540467582417619E-2</v>
       </c>
       <c r="L39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6532417582384995E-5</v>
       </c>
     </row>
@@ -6273,19 +6276,19 @@
         <v>8.2766000000000006E-2</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>803346.65984000009</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94211094937600</v>
       </c>
       <c r="K40">
-        <f>alpha+beta*A40</f>
+        <f t="shared" si="4"/>
         <v>8.2767203434065975E-2</v>
       </c>
       <c r="L40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.2034340659689002E-6</v>
       </c>
     </row>
@@ -6297,19 +6300,19 @@
         <v>8.5024000000000002E-2</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>847530.11507200007</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99363575824384</v>
       </c>
       <c r="K41">
-        <f>alpha+beta*A41</f>
+        <f t="shared" si="4"/>
         <v>8.4993939285714318E-2</v>
       </c>
       <c r="L41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0060714285684575E-5</v>
       </c>
     </row>
@@ -6321,19 +6324,19 @@
         <v>8.7203000000000003E-2</v>
       </c>
       <c r="C42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>892088.08524799999</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>104653227360256</v>
       </c>
       <c r="K42">
-        <f>alpha+beta*A42</f>
+        <f t="shared" si="4"/>
         <v>8.7220675137362674E-2</v>
       </c>
       <c r="L42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.7675137362671567E-5</v>
       </c>
     </row>
@@ -6345,19 +6348,19 @@
         <v>8.9441000000000007E-2</v>
       </c>
       <c r="C43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>938406.38566400006</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110080049545216</v>
       </c>
       <c r="K43">
-        <f>alpha+beta*A43</f>
+        <f t="shared" si="4"/>
         <v>8.9447410989011031E-2</v>
       </c>
       <c r="L43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6.4109890110242151E-6</v>
       </c>
     </row>
@@ -6369,19 +6372,19 @@
         <v>9.1655E-2</v>
       </c>
       <c r="C44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>985638.80576000002</v>
       </c>
       <c r="D44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>115644042379264</v>
       </c>
       <c r="K44">
-        <f>alpha+beta*A44</f>
+        <f t="shared" si="4"/>
         <v>9.1674146840659387E-2</v>
       </c>
       <c r="L44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.9146840659386988E-5</v>
       </c>
     </row>
@@ -6393,19 +6396,19 @@
         <v>9.3923000000000006E-2</v>
       </c>
       <c r="C45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1034625.71264</v>
       </c>
       <c r="D45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>121345205862400</v>
       </c>
       <c r="K45">
-        <f>alpha+beta*A45</f>
+        <f t="shared" si="4"/>
         <v>9.390088269230773E-2</v>
       </c>
       <c r="L45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2117307692276489E-5</v>
       </c>
     </row>
@@ -6417,19 +6420,19 @@
         <v>9.6101000000000006E-2</v>
       </c>
       <c r="C46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1083785.5623680002</v>
       </c>
       <c r="D46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>127183539994624</v>
       </c>
       <c r="K46">
-        <f>alpha+beta*A46</f>
+        <f t="shared" si="4"/>
         <v>9.6127618543956087E-2</v>
       </c>
       <c r="L46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.6618543956080654E-5</v>
       </c>
     </row>
@@ -6441,19 +6444,19 @@
         <v>9.8382999999999998E-2</v>
       </c>
       <c r="C47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1135286.2996479999</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>133159044775936</v>
       </c>
       <c r="K47">
-        <f>alpha+beta*A47</f>
+        <f t="shared" si="4"/>
         <v>9.8354354395604443E-2</v>
       </c>
       <c r="L47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8645604395555191E-5</v>
       </c>
     </row>
@@ -6465,19 +6468,19 @@
         <v>0.10061299999999999</v>
       </c>
       <c r="C48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1187368.623872</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>139271720206336</v>
       </c>
       <c r="K48">
-        <f>alpha+beta*A48</f>
+        <f t="shared" si="4"/>
         <v>0.1005810902472528</v>
       </c>
       <c r="L48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.1909752747194542E-5</v>
       </c>
     </row>
@@ -6489,19 +6492,19 @@
         <v>0.102835</v>
       </c>
       <c r="C49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1240522.46272</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>145521566285824</v>
       </c>
       <c r="K49">
-        <f>alpha+beta*A49</f>
+        <f t="shared" si="4"/>
         <v>0.10280782609890114</v>
       </c>
       <c r="L49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7173901098853648E-5</v>
       </c>
     </row>
@@ -6513,19 +6516,19 @@
         <v>0.105057</v>
       </c>
       <c r="C50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1294840.1318399999</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>151908583014400</v>
       </c>
       <c r="K50">
-        <f>alpha+beta*A50</f>
+        <f t="shared" si="4"/>
         <v>0.1050345619505495</v>
       </c>
       <c r="L50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2438049450498876E-5</v>
       </c>
     </row>
@@ -6537,19 +6540,19 @@
         <v>0.107279</v>
       </c>
       <c r="C51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1350321.631232</v>
       </c>
       <c r="D51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>158432770392064</v>
       </c>
       <c r="K51">
-        <f>alpha+beta*A51</f>
+        <f t="shared" si="4"/>
         <v>0.10726129780219786</v>
       </c>
       <c r="L51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7702197802144104E-5</v>
       </c>
     </row>
@@ -6561,19 +6564,19 @@
         <v>0.109502</v>
       </c>
       <c r="C52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1406979.8097920001</v>
       </c>
       <c r="D52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>165094128418816</v>
       </c>
       <c r="K52">
-        <f>alpha+beta*A52</f>
+        <f t="shared" si="4"/>
         <v>0.10948803365384621</v>
       </c>
       <c r="L52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3966346153790332E-5</v>
       </c>
     </row>
@@ -6585,19 +6588,19 @@
         <v>0.111696</v>
       </c>
       <c r="C53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1464422.1296640001</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>171892657094656</v>
       </c>
       <c r="K53">
-        <f>alpha+beta*A53</f>
+        <f t="shared" si="4"/>
         <v>0.11171476950549455</v>
       </c>
       <c r="L53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.8769505494550809E-5</v>
       </c>
     </row>
@@ -6609,19 +6612,19 @@
         <v>0.113936</v>
       </c>
       <c r="C54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1523628.7569919999</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>178828356419584</v>
       </c>
       <c r="K54">
-        <f>alpha+beta*A54</f>
+        <f t="shared" si="4"/>
         <v>0.11394150535714291</v>
       </c>
       <c r="L54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5.5053571429153347E-6</v>
       </c>
     </row>
@@ -6633,19 +6636,19 @@
         <v>0.11617</v>
       </c>
       <c r="C55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1583926.8351999999</v>
       </c>
       <c r="D55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>185901226393600</v>
       </c>
       <c r="K55">
-        <f>alpha+beta*A55</f>
+        <f t="shared" si="4"/>
         <v>0.11616824120879127</v>
       </c>
       <c r="L55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7587912087280166E-6</v>
       </c>
     </row>
@@ -6657,19 +6660,19 @@
         <v>0.118391</v>
       </c>
       <c r="C56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1645214.3751679999</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>193111267016704</v>
       </c>
       <c r="K56">
-        <f>alpha+beta*A56</f>
+        <f t="shared" si="4"/>
         <v>0.11839497706043962</v>
       </c>
       <c r="L56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.9770604396277554E-6</v>
       </c>
     </row>
@@ -6681,19 +6684,19 @@
         <v>0.120611</v>
       </c>
       <c r="C57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1707651.063296</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200458478288896</v>
       </c>
       <c r="K57">
-        <f>alpha+beta*A57</f>
+        <f t="shared" si="4"/>
         <v>0.12062171291208797</v>
       </c>
       <c r="L57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.071291208797065E-5</v>
       </c>
     </row>
@@ -6705,19 +6708,19 @@
         <v>0.122863</v>
       </c>
       <c r="C58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1771711.981312</v>
       </c>
       <c r="D58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>207942860210176</v>
       </c>
       <c r="K58">
-        <f>alpha+beta*A58</f>
+        <f t="shared" si="4"/>
         <v>0.12284844876373632</v>
       </c>
       <c r="L58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4551236263676826E-5</v>
       </c>
     </row>
@@ -6729,19 +6732,19 @@
         <v>0.125055</v>
       </c>
       <c r="C59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1836071.5161599999</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>215564412780544</v>
       </c>
       <c r="K59">
-        <f>alpha+beta*A59</f>
+        <f t="shared" si="4"/>
         <v>0.12507518461538469</v>
       </c>
       <c r="L59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.0184615384694071E-5</v>
       </c>
     </row>
@@ -6753,19 +6756,19 @@
         <v>0.127279</v>
       </c>
       <c r="C60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1902057.3760000002</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>223323136000000</v>
       </c>
       <c r="K60">
-        <f>alpha+beta*A60</f>
+        <f t="shared" si="4"/>
         <v>0.12730192046703304</v>
       </c>
       <c r="L60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.2920467033032965E-5</v>
       </c>
     </row>
@@ -6777,19 +6780,19 @@
         <v>0.129501</v>
       </c>
       <c r="C61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1969177.7018880001</v>
       </c>
       <c r="D61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>231219029868544</v>
       </c>
       <c r="K61">
-        <f>alpha+beta*A61</f>
+        <f t="shared" si="4"/>
         <v>0.12952865631868141</v>
       </c>
       <c r="L61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.7656318681401615E-5</v>
       </c>
     </row>
@@ -6801,19 +6804,19 @@
         <v>0.13173000000000001</v>
       </c>
       <c r="C62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2037570.1324800001</v>
       </c>
       <c r="D62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>239252094386176</v>
       </c>
       <c r="K62">
-        <f>alpha+beta*A62</f>
+        <f t="shared" si="4"/>
         <v>0.13175539217032975</v>
       </c>
       <c r="L62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.5392170329735508E-5</v>
       </c>
     </row>
@@ -6825,19 +6828,19 @@
         <v>0.13394500000000001</v>
       </c>
       <c r="C63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2106909.84448</v>
       </c>
       <c r="D63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>247422329552896</v>
       </c>
       <c r="K63">
-        <f>alpha+beta*A63</f>
+        <f t="shared" si="4"/>
         <v>0.13398212802197809</v>
       </c>
       <c r="L63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.7128021978083403E-5</v>
       </c>
     </row>
@@ -6849,19 +6852,19 @@
         <v>0.13617499999999999</v>
       </c>
       <c r="C64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2177649.5935999998</v>
       </c>
       <c r="D64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>255729735368704</v>
       </c>
       <c r="K64">
-        <f>alpha+beta*A64</f>
+        <f t="shared" si="4"/>
         <v>0.13620886387362646</v>
       </c>
       <c r="L64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.3863873626471808E-5</v>
       </c>
     </row>
@@ -6873,19 +6876,19 @@
         <v>0.13838400000000001</v>
       </c>
       <c r="C65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2249216.0409599999</v>
       </c>
       <c r="D65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>264174311833600</v>
       </c>
       <c r="K65">
-        <f>alpha+beta*A65</f>
+        <f t="shared" si="4"/>
         <v>0.1384355997252748</v>
       </c>
       <c r="L65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5.1599725274797947E-5</v>
       </c>
     </row>
@@ -6897,19 +6900,19 @@
         <v>0.140678</v>
       </c>
       <c r="C66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2323343.312384</v>
       </c>
       <c r="D66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>272756058947584</v>
       </c>
       <c r="K66">
-        <f>alpha+beta*A66</f>
+        <f t="shared" si="4"/>
         <v>0.14066233557692318</v>
       </c>
       <c r="L66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5664423076822143E-5</v>
       </c>
     </row>
